--- a/2024-11-12/2.Good-RS3 Bad-RS6.xlsx
+++ b/2024-11-12/2.Good-RS3 Bad-RS6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t>Symbol</t>
   </si>
@@ -79,12 +79,18 @@
     <t>KSL</t>
   </si>
   <si>
+    <t>MEDPLUS</t>
+  </si>
+  <si>
     <t>JISLDVREQS</t>
   </si>
   <si>
     <t>KIRLOSENG</t>
   </si>
   <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
     <t>PRAKASH</t>
   </si>
   <si>
@@ -100,6 +106,15 @@
     <t>LANDMARK</t>
   </si>
   <si>
+    <t>DCBBANK</t>
+  </si>
+  <si>
+    <t>SDBL</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
     <t>EMBDL</t>
   </si>
   <si>
@@ -109,6 +124,9 @@
     <t>DBOL</t>
   </si>
   <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
     <t>SUNFLAG</t>
   </si>
   <si>
@@ -142,6 +160,9 @@
     <t>FCL</t>
   </si>
   <si>
+    <t>PTL</t>
+  </si>
+  <si>
     <t>ZUARIIND</t>
   </si>
   <si>
@@ -151,6 +172,9 @@
     <t>IIFL</t>
   </si>
   <si>
+    <t>UGROCAP</t>
+  </si>
+  <si>
     <t>DELTACORP</t>
   </si>
   <si>
@@ -160,9 +184,6 @@
     <t>INTLCONV</t>
   </si>
   <si>
-    <t>SOMANYCERA</t>
-  </si>
-  <si>
     <t>KDDL</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t>TRUST</t>
   </si>
   <si>
+    <t>VRAJ</t>
+  </si>
+  <si>
     <t>NMDC</t>
   </si>
   <si>
@@ -235,6 +259,9 @@
     <t>D+</t>
   </si>
   <si>
+    <t>D-</t>
+  </si>
+  <si>
     <t>Electrical-Power/Equipmt</t>
   </si>
   <si>
@@ -253,12 +280,18 @@
     <t xml:space="preserve">Steel-Producers         </t>
   </si>
   <si>
+    <t xml:space="preserve">Retail-Drug Stores      </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bldg-Constr Prds/Misc   </t>
   </si>
   <si>
     <t>Machinery-Gen Industrial</t>
   </si>
   <si>
+    <t xml:space="preserve">Leisure-Lodging         </t>
+  </si>
+  <si>
     <t xml:space="preserve">Apparel-Clothing Mfg    </t>
   </si>
   <si>
@@ -268,6 +301,15 @@
     <t>Retail/Whlsle-Automobile</t>
   </si>
   <si>
+    <t xml:space="preserve">Banks-Money Center      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverages-Alcoholic     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance-Consumer Loans  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Real Estate Dvlpmt/Ops  </t>
   </si>
   <si>
@@ -292,10 +334,7 @@
     <t xml:space="preserve">Chemicals-Specialty     </t>
   </si>
   <si>
-    <t xml:space="preserve">Leisure-Lodging         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance-Consumer Loans  </t>
+    <t xml:space="preserve">Auto/Truck-Tires &amp; Misc </t>
   </si>
   <si>
     <t xml:space="preserve">Leisure-Gaming/Equip    </t>
@@ -317,9 +356,6 @@
   </si>
   <si>
     <t xml:space="preserve">Transportation-Ship     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banks-Money Center      </t>
   </si>
   <si>
     <t xml:space="preserve">Trucks &amp; Parts-Hvy Duty </t>
@@ -680,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +783,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>108</v>
@@ -777,7 +813,7 @@
         <v>1998127</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -797,7 +833,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>69</v>
@@ -827,7 +863,7 @@
         <v>3042226</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -847,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>156</v>
@@ -877,7 +913,7 @@
         <v>99357</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -897,7 +933,7 @@
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>54</v>
@@ -927,7 +963,7 @@
         <v>13137245</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -947,7 +983,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>154</v>
@@ -977,7 +1013,7 @@
         <v>2018428</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -997,7 +1033,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>115</v>
@@ -1027,7 +1063,7 @@
         <v>53507</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -1041,43 +1077,43 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>33.8</v>
+        <v>675</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G8">
-        <v>2343.88</v>
+        <v>8068.82</v>
       </c>
       <c r="H8">
-        <v>-26.44</v>
+        <v>-20.49</v>
       </c>
       <c r="I8">
-        <v>25.71</v>
+        <v>12.75</v>
       </c>
       <c r="J8">
-        <v>-0.9</v>
+        <v>-0.52</v>
       </c>
       <c r="K8">
-        <v>-4.3</v>
+        <v>-0.95</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N8">
-        <v>82675</v>
+        <v>344863</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1091,43 +1127,43 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1164.4</v>
+        <v>33.8</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G9">
-        <v>17151.51</v>
+        <v>2343.88</v>
       </c>
       <c r="H9">
-        <v>-19.7</v>
+        <v>-26.44</v>
       </c>
       <c r="I9">
-        <v>124.56</v>
+        <v>25.71</v>
       </c>
       <c r="J9">
-        <v>-1.76</v>
+        <v>-0.9</v>
       </c>
       <c r="K9">
-        <v>6.27</v>
+        <v>-4.3</v>
       </c>
       <c r="L9">
         <v>50</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N9">
-        <v>277834</v>
+        <v>82675</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -1141,43 +1177,43 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>177</v>
+        <v>1164.4</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="G10">
-        <v>3132.14</v>
+        <v>17151.51</v>
       </c>
       <c r="H10">
-        <v>-25.32</v>
+        <v>-19.7</v>
       </c>
       <c r="I10">
-        <v>36.48</v>
+        <v>124.56</v>
       </c>
       <c r="J10">
-        <v>-2.41</v>
+        <v>-1.76</v>
       </c>
       <c r="K10">
-        <v>-2.71</v>
+        <v>6.27</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>32</v>
       </c>
       <c r="N10">
-        <v>1086171</v>
+        <v>277834</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1191,43 +1227,43 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>122.45</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G11">
-        <v>749.11</v>
+        <v>9822.27</v>
       </c>
       <c r="H11">
-        <v>-24.29</v>
+        <v>-22.5</v>
       </c>
       <c r="I11">
-        <v>91.28</v>
+        <v>10.89</v>
       </c>
       <c r="J11">
-        <v>-0.14</v>
+        <v>0.6</v>
       </c>
       <c r="K11">
-        <v>8.91</v>
+        <v>-8.69</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N11">
-        <v>111038</v>
+        <v>3020138</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -1241,43 +1277,43 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1137.1</v>
+        <v>177</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G12">
-        <v>1696.22</v>
+        <v>3132.14</v>
       </c>
       <c r="H12">
-        <v>-23.83</v>
+        <v>-25.32</v>
       </c>
       <c r="I12">
-        <v>131.33</v>
+        <v>36.48</v>
       </c>
       <c r="J12">
-        <v>-5.06</v>
+        <v>-2.41</v>
       </c>
       <c r="K12">
-        <v>-1.78</v>
+        <v>-2.71</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N12">
-        <v>118074</v>
+        <v>1086171</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1291,43 +1327,43 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>1342</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G13">
-        <v>15963.67</v>
+        <v>749.11</v>
       </c>
       <c r="H13">
-        <v>-20.83</v>
+        <v>-24.29</v>
       </c>
       <c r="I13">
-        <v>71.87</v>
+        <v>91.28</v>
       </c>
       <c r="J13">
-        <v>1.13</v>
+        <v>-0.14</v>
       </c>
       <c r="K13">
-        <v>-0.42</v>
+        <v>8.91</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M13">
         <v>37</v>
       </c>
       <c r="N13">
-        <v>384424</v>
+        <v>111038</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -1341,43 +1377,43 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>635.9</v>
+        <v>1137.1</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F14">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="G14">
-        <v>2610.67</v>
+        <v>1696.22</v>
       </c>
       <c r="H14">
-        <v>-29.73</v>
+        <v>-23.83</v>
       </c>
       <c r="I14">
-        <v>16.71</v>
+        <v>131.33</v>
       </c>
       <c r="J14">
-        <v>1.84</v>
+        <v>-5.06</v>
       </c>
       <c r="K14">
-        <v>-8.539999999999999</v>
+        <v>-1.78</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N14">
-        <v>81600</v>
+        <v>118074</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -1391,43 +1427,43 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>123.21</v>
+        <v>1342</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G15">
-        <v>7765.58</v>
+        <v>15963.67</v>
       </c>
       <c r="H15">
-        <v>-25.04</v>
+        <v>-20.83</v>
       </c>
       <c r="I15">
-        <v>55.82</v>
+        <v>71.87</v>
       </c>
       <c r="J15">
-        <v>-0.8100000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="K15">
-        <v>-3.82</v>
+        <v>-0.42</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>6079208</v>
+        <v>384424</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -1441,43 +1477,43 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>284.25</v>
+        <v>635.9</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="G16">
-        <v>2808.34</v>
+        <v>2610.67</v>
       </c>
       <c r="H16">
-        <v>-29.21</v>
+        <v>-29.73</v>
       </c>
       <c r="I16">
-        <v>19.44</v>
+        <v>16.71</v>
       </c>
       <c r="J16">
-        <v>-0.61</v>
+        <v>1.84</v>
       </c>
       <c r="K16">
-        <v>-7.43</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N16">
-        <v>225384</v>
+        <v>81600</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -1491,43 +1527,43 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>133</v>
+        <v>120.08</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="G17">
-        <v>885.48</v>
+        <v>3756.59</v>
       </c>
       <c r="H17">
-        <v>-22.4</v>
+        <v>-26.53</v>
       </c>
       <c r="I17">
-        <v>18.67</v>
+        <v>10.22</v>
       </c>
       <c r="J17">
-        <v>-4.38</v>
+        <v>0.47</v>
       </c>
       <c r="K17">
-        <v>-1.43</v>
+        <v>-5.74</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N17">
-        <v>257027</v>
+        <v>1494657</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1541,43 +1577,43 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>213.15</v>
+        <v>108.1</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>3825.87</v>
+        <v>2097.88</v>
       </c>
       <c r="H18">
-        <v>-22.48</v>
+        <v>-27.4</v>
       </c>
       <c r="I18">
-        <v>21.31</v>
+        <v>12.33</v>
       </c>
       <c r="J18">
-        <v>-1.64</v>
+        <v>-2.71</v>
       </c>
       <c r="K18">
-        <v>-2.5</v>
+        <v>-45.92</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N18">
-        <v>365373</v>
+        <v>1286335</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -1591,43 +1627,43 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>214.13</v>
+        <v>201.89</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G19">
-        <v>627.15</v>
+        <v>16728.13</v>
       </c>
       <c r="H19">
-        <v>-29.33</v>
+        <v>-30.2</v>
       </c>
       <c r="I19">
-        <v>21.98</v>
+        <v>13.93</v>
       </c>
       <c r="J19">
-        <v>-2.7</v>
+        <v>-0.31</v>
       </c>
       <c r="K19">
-        <v>-5.56</v>
+        <v>-2.73</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>63164</v>
+        <v>995709</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -1641,43 +1677,43 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>765.9</v>
+        <v>123.21</v>
       </c>
       <c r="D20">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F20">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G20">
-        <v>18396.66</v>
+        <v>7765.58</v>
       </c>
       <c r="H20">
-        <v>-21.85</v>
+        <v>-25.04</v>
       </c>
       <c r="I20">
-        <v>136.34</v>
+        <v>55.82</v>
       </c>
       <c r="J20">
-        <v>-3.81</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K20">
-        <v>1.81</v>
+        <v>-3.82</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20">
-        <v>424666</v>
+        <v>6079208</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -1691,43 +1727,43 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>213.6</v>
+        <v>284.25</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="G21">
-        <v>2097.26</v>
+        <v>2808.34</v>
       </c>
       <c r="H21">
-        <v>-37.92</v>
+        <v>-29.21</v>
       </c>
       <c r="I21">
-        <v>17.45</v>
+        <v>19.44</v>
       </c>
       <c r="J21">
-        <v>-2.65</v>
+        <v>-0.61</v>
       </c>
       <c r="K21">
-        <v>-2.96</v>
+        <v>-7.43</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N21">
-        <v>795235</v>
+        <v>225384</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -1741,43 +1777,43 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>185.59</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F22">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>6873.94</v>
+        <v>885.48</v>
       </c>
       <c r="H22">
-        <v>-25.56</v>
+        <v>-22.4</v>
       </c>
       <c r="I22">
-        <v>31.5</v>
+        <v>18.67</v>
       </c>
       <c r="J22">
-        <v>-2.65</v>
+        <v>-4.38</v>
       </c>
       <c r="K22">
-        <v>-7.93</v>
+        <v>-1.43</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N22">
-        <v>621596</v>
+        <v>257027</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -1791,43 +1827,43 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <v>1245.1</v>
+        <v>1089.35</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F23">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="G23">
-        <v>10800.46</v>
+        <v>3067.39</v>
       </c>
       <c r="H23">
-        <v>-17.37</v>
+        <v>-19.84</v>
       </c>
       <c r="I23">
-        <v>48.46</v>
+        <v>10.33</v>
       </c>
       <c r="J23">
-        <v>3.68</v>
+        <v>-3.38</v>
       </c>
       <c r="K23">
-        <v>-2.03</v>
+        <v>-6.21</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N23">
-        <v>185079</v>
+        <v>53945</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -1841,43 +1877,43 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>550.55</v>
+        <v>213.15</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F24">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="G24">
-        <v>6985.95</v>
+        <v>3825.87</v>
       </c>
       <c r="H24">
-        <v>-16.84</v>
+        <v>-22.48</v>
       </c>
       <c r="I24">
-        <v>27.05</v>
+        <v>21.31</v>
       </c>
       <c r="J24">
-        <v>3.36</v>
+        <v>-1.64</v>
       </c>
       <c r="K24">
-        <v>-0.15</v>
+        <v>-2.5</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N24">
-        <v>37890</v>
+        <v>365373</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -1891,43 +1927,43 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>239.47</v>
+        <v>214.13</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="G25">
-        <v>5169.43</v>
+        <v>627.15</v>
       </c>
       <c r="H25">
-        <v>-19.4</v>
+        <v>-29.33</v>
       </c>
       <c r="I25">
-        <v>28.19</v>
+        <v>21.98</v>
       </c>
       <c r="J25">
-        <v>-0.53</v>
+        <v>-2.7</v>
       </c>
       <c r="K25">
-        <v>2.9</v>
+        <v>-5.56</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N25">
-        <v>341507</v>
+        <v>63164</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -1941,43 +1977,43 @@
         <v>39</v>
       </c>
       <c r="C26">
-        <v>480.8</v>
+        <v>765.9</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F26">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="G26">
-        <v>7737.9</v>
+        <v>18396.66</v>
       </c>
       <c r="H26">
-        <v>-24.15</v>
+        <v>-21.85</v>
       </c>
       <c r="I26">
-        <v>21.5</v>
+        <v>136.34</v>
       </c>
       <c r="J26">
-        <v>-0.59</v>
+        <v>-3.81</v>
       </c>
       <c r="K26">
-        <v>-0.8100000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>275555</v>
+        <v>424666</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -1991,43 +2027,43 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>69.88</v>
+        <v>213.6</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F27">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="G27">
-        <v>648.74</v>
+        <v>2097.26</v>
       </c>
       <c r="H27">
-        <v>-23.75</v>
+        <v>-37.92</v>
       </c>
       <c r="I27">
-        <v>46.21</v>
+        <v>17.45</v>
       </c>
       <c r="J27">
-        <v>-3.03</v>
+        <v>-2.65</v>
       </c>
       <c r="K27">
-        <v>-6.61</v>
+        <v>-2.96</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N27">
-        <v>149108</v>
+        <v>795235</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2041,43 +2077,43 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>372</v>
+        <v>185.59</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G28">
-        <v>4238.35</v>
+        <v>6873.94</v>
       </c>
       <c r="H28">
-        <v>-18.93</v>
+        <v>-25.56</v>
       </c>
       <c r="I28">
-        <v>21.79</v>
+        <v>31.5</v>
       </c>
       <c r="J28">
-        <v>-4.6</v>
+        <v>-2.65</v>
       </c>
       <c r="K28">
-        <v>-1.79</v>
+        <v>-7.93</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N28">
-        <v>583214</v>
+        <v>621596</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -2091,43 +2127,43 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>342.9</v>
+        <v>1245.1</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F29">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G29">
-        <v>1015.38</v>
+        <v>10800.46</v>
       </c>
       <c r="H29">
-        <v>-19.01</v>
+        <v>-17.37</v>
       </c>
       <c r="I29">
-        <v>134.33</v>
+        <v>48.46</v>
       </c>
       <c r="J29">
-        <v>-3.86</v>
+        <v>3.68</v>
       </c>
       <c r="K29">
-        <v>1.25</v>
+        <v>-2.03</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N29">
-        <v>133194</v>
+        <v>185079</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -2141,43 +2177,43 @@
         <v>43</v>
       </c>
       <c r="C30">
-        <v>396.5</v>
+        <v>550.55</v>
       </c>
       <c r="D30">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F30">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G30">
-        <v>2597.65</v>
+        <v>6985.95</v>
       </c>
       <c r="H30">
-        <v>-38.62</v>
+        <v>-16.84</v>
       </c>
       <c r="I30">
-        <v>127.63</v>
+        <v>27.05</v>
       </c>
       <c r="J30">
-        <v>-0.18</v>
+        <v>3.36</v>
       </c>
       <c r="K30">
-        <v>5.53</v>
+        <v>-0.15</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N30">
-        <v>149528</v>
+        <v>37890</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -2191,43 +2227,43 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <v>438.9</v>
+        <v>239.47</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F31">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="G31">
-        <v>18733.32</v>
+        <v>5169.43</v>
       </c>
       <c r="H31">
-        <v>-32.86</v>
+        <v>-19.4</v>
       </c>
       <c r="I31">
-        <v>45.25</v>
+        <v>28.19</v>
       </c>
       <c r="J31">
-        <v>-4.75</v>
+        <v>-0.53</v>
       </c>
       <c r="K31">
-        <v>-3.76</v>
+        <v>2.9</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>3828409</v>
+        <v>341507</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -2241,43 +2277,43 @@
         <v>45</v>
       </c>
       <c r="C32">
-        <v>123.1</v>
+        <v>480.8</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F32">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="G32">
-        <v>3217.54</v>
+        <v>7737.9</v>
       </c>
       <c r="H32">
-        <v>-22.97</v>
+        <v>-24.15</v>
       </c>
       <c r="I32">
-        <v>15.04</v>
+        <v>21.5</v>
       </c>
       <c r="J32">
-        <v>-3.62</v>
+        <v>-0.59</v>
       </c>
       <c r="K32">
-        <v>-6.43</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N32">
-        <v>2005241</v>
+        <v>275555</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -2291,43 +2327,43 @@
         <v>46</v>
       </c>
       <c r="C33">
-        <v>502.4</v>
+        <v>69.88</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F33">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G33">
-        <v>1435.3</v>
+        <v>648.74</v>
       </c>
       <c r="H33">
-        <v>-25.35</v>
+        <v>-23.75</v>
       </c>
       <c r="I33">
-        <v>97.2</v>
+        <v>46.21</v>
       </c>
       <c r="J33">
-        <v>-6.07</v>
+        <v>-3.03</v>
       </c>
       <c r="K33">
-        <v>-4.78</v>
+        <v>-6.61</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N33">
-        <v>529549</v>
+        <v>149108</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -2341,43 +2377,43 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>90.13</v>
+        <v>372</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F34">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="G34">
-        <v>536.76</v>
+        <v>4238.35</v>
       </c>
       <c r="H34">
-        <v>-27.75</v>
+        <v>-18.93</v>
       </c>
       <c r="I34">
-        <v>20.99</v>
+        <v>21.79</v>
       </c>
       <c r="J34">
-        <v>-6.23</v>
+        <v>-4.6</v>
       </c>
       <c r="K34">
-        <v>-2.56</v>
+        <v>-1.79</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M34">
         <v>38</v>
       </c>
       <c r="N34">
-        <v>765590</v>
+        <v>583214</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -2391,43 +2427,43 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>685</v>
+        <v>42.7</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F35">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="G35">
-        <v>2827.09</v>
+        <v>560.88</v>
       </c>
       <c r="H35">
-        <v>-21.5</v>
+        <v>-21.07</v>
       </c>
       <c r="I35">
-        <v>22.84</v>
+        <v>12.24</v>
       </c>
       <c r="J35">
-        <v>-1.6</v>
+        <v>-1.92</v>
       </c>
       <c r="K35">
-        <v>-1.03</v>
+        <v>-3.07</v>
       </c>
       <c r="L35">
         <v>42</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>26755</v>
+        <v>95364</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -2441,43 +2477,43 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>2816.5</v>
+        <v>342.9</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F36">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="G36">
-        <v>3498.7</v>
+        <v>1015.38</v>
       </c>
       <c r="H36">
-        <v>-26.18</v>
+        <v>-19.01</v>
       </c>
       <c r="I36">
-        <v>35.98</v>
+        <v>134.33</v>
       </c>
       <c r="J36">
-        <v>-2.2</v>
+        <v>-3.86</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>31147</v>
+        <v>133194</v>
       </c>
       <c r="O36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -2491,43 +2527,43 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>394</v>
+        <v>396.5</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F37">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G37">
-        <v>716.5700000000001</v>
+        <v>2597.65</v>
       </c>
       <c r="H37">
-        <v>-17.18</v>
+        <v>-38.62</v>
       </c>
       <c r="I37">
-        <v>53.7</v>
+        <v>127.63</v>
       </c>
       <c r="J37">
-        <v>2.71</v>
+        <v>-0.18</v>
       </c>
       <c r="K37">
-        <v>-0.66</v>
+        <v>5.53</v>
       </c>
       <c r="L37">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N37">
-        <v>144012</v>
+        <v>149528</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -2541,43 +2577,43 @@
         <v>51</v>
       </c>
       <c r="C38">
-        <v>190.29</v>
+        <v>438.9</v>
       </c>
       <c r="D38">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F38">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="G38">
-        <v>1667.29</v>
+        <v>18733.32</v>
       </c>
       <c r="H38">
-        <v>-21.53</v>
+        <v>-32.86</v>
       </c>
       <c r="I38">
-        <v>56.97</v>
+        <v>45.25</v>
       </c>
       <c r="J38">
-        <v>-0.67</v>
+        <v>-4.75</v>
       </c>
       <c r="K38">
-        <v>-2.57</v>
+        <v>-3.76</v>
       </c>
       <c r="L38">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N38">
-        <v>197778</v>
+        <v>3828409</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -2591,43 +2627,43 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>167.71</v>
+        <v>239.02</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F39">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G39">
-        <v>4347.17</v>
+        <v>2223.12</v>
       </c>
       <c r="H39">
-        <v>-25.69</v>
+        <v>-24.6</v>
       </c>
       <c r="I39">
-        <v>29.61</v>
+        <v>12.23</v>
       </c>
       <c r="J39">
-        <v>-0.24</v>
+        <v>-3.32</v>
       </c>
       <c r="K39">
-        <v>-1.99</v>
+        <v>-7.41</v>
       </c>
       <c r="L39">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>255552</v>
+        <v>305323</v>
       </c>
       <c r="O39" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -2641,43 +2677,43 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>90</v>
+        <v>123.1</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F40">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G40">
-        <v>663.49</v>
+        <v>3217.54</v>
       </c>
       <c r="H40">
-        <v>-29.66</v>
+        <v>-22.97</v>
       </c>
       <c r="I40">
-        <v>15.76</v>
+        <v>15.04</v>
       </c>
       <c r="J40">
-        <v>-1.46</v>
+        <v>-3.62</v>
       </c>
       <c r="K40">
-        <v>-9.31</v>
+        <v>-6.43</v>
       </c>
       <c r="L40">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N40">
-        <v>154071</v>
+        <v>2005241</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -2691,43 +2727,43 @@
         <v>54</v>
       </c>
       <c r="C41">
-        <v>177</v>
+        <v>502.4</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F41">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G41">
-        <v>625.83</v>
+        <v>1435.3</v>
       </c>
       <c r="H41">
-        <v>-24.62</v>
+        <v>-25.35</v>
       </c>
       <c r="I41">
-        <v>92.94</v>
+        <v>97.2</v>
       </c>
       <c r="J41">
-        <v>-6.7</v>
+        <v>-6.07</v>
       </c>
       <c r="K41">
-        <v>-4.35</v>
+        <v>-4.78</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N41">
-        <v>112574</v>
+        <v>529549</v>
       </c>
       <c r="O41" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -2741,43 +2777,43 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>357.55</v>
+        <v>90.13</v>
       </c>
       <c r="D42">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F42">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G42">
-        <v>9418.35</v>
+        <v>536.76</v>
       </c>
       <c r="H42">
-        <v>-15.13</v>
+        <v>-27.75</v>
       </c>
       <c r="I42">
-        <v>71.64</v>
+        <v>20.99</v>
       </c>
       <c r="J42">
-        <v>-3.67</v>
+        <v>-6.23</v>
       </c>
       <c r="K42">
-        <v>3.46</v>
+        <v>-2.56</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N42">
-        <v>456033</v>
+        <v>765590</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -2791,43 +2827,43 @@
         <v>56</v>
       </c>
       <c r="C43">
-        <v>210</v>
+        <v>2816.5</v>
       </c>
       <c r="D43">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G43">
-        <v>500.09</v>
+        <v>3498.7</v>
       </c>
       <c r="H43">
-        <v>-33.54</v>
+        <v>-26.18</v>
       </c>
       <c r="I43">
-        <v>31.89</v>
+        <v>35.98</v>
       </c>
       <c r="J43">
-        <v>-5.12</v>
+        <v>-2.2</v>
       </c>
       <c r="K43">
-        <v>-5.8</v>
+        <v>0.75</v>
       </c>
       <c r="L43">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N43">
-        <v>72912</v>
+        <v>31147</v>
       </c>
       <c r="O43" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -2841,46 +2877,46 @@
         <v>57</v>
       </c>
       <c r="C44">
-        <v>227.39</v>
+        <v>394</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F44">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G44">
-        <v>68262.61</v>
+        <v>716.5700000000001</v>
       </c>
       <c r="H44">
-        <v>-20.59</v>
+        <v>-17.18</v>
       </c>
       <c r="I44">
-        <v>39.69</v>
+        <v>53.7</v>
       </c>
       <c r="J44">
-        <v>3.87</v>
+        <v>2.71</v>
       </c>
       <c r="K44">
-        <v>-1.07</v>
+        <v>-0.66</v>
       </c>
       <c r="L44">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M44">
         <v>34</v>
       </c>
       <c r="N44">
-        <v>13079126</v>
+        <v>144012</v>
       </c>
       <c r="O44" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2891,46 +2927,46 @@
         <v>58</v>
       </c>
       <c r="C45">
-        <v>308.7</v>
+        <v>190.29</v>
       </c>
       <c r="D45">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F45">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>64596.06</v>
+        <v>1667.29</v>
       </c>
       <c r="H45">
-        <v>-14.48</v>
+        <v>-21.53</v>
       </c>
       <c r="I45">
-        <v>56.54</v>
+        <v>56.97</v>
       </c>
       <c r="J45">
-        <v>-4.02</v>
+        <v>-0.67</v>
       </c>
       <c r="K45">
-        <v>7.17</v>
+        <v>-2.57</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N45">
-        <v>3015260</v>
+        <v>197778</v>
       </c>
       <c r="O45" t="s">
         <v>100</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2941,46 +2977,46 @@
         <v>59</v>
       </c>
       <c r="C46">
-        <v>110.15</v>
+        <v>167.71</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G46">
-        <v>51080.93</v>
+        <v>4347.17</v>
       </c>
       <c r="H46">
-        <v>-30.26</v>
+        <v>-25.69</v>
       </c>
       <c r="I46">
-        <v>16.88</v>
+        <v>29.61</v>
       </c>
       <c r="J46">
-        <v>2.97</v>
+        <v>-0.24</v>
       </c>
       <c r="K46">
-        <v>-10.46</v>
+        <v>-1.99</v>
       </c>
       <c r="L46">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N46">
-        <v>5273481</v>
+        <v>255552</v>
       </c>
       <c r="O46" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2991,46 +3027,46 @@
         <v>60</v>
       </c>
       <c r="C47">
-        <v>102.8</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F47">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G47">
-        <v>94234.99000000001</v>
+        <v>663.49</v>
       </c>
       <c r="H47">
-        <v>-20.25</v>
+        <v>-29.66</v>
       </c>
       <c r="I47">
-        <v>34.24</v>
+        <v>15.76</v>
       </c>
       <c r="J47">
-        <v>-1.03</v>
+        <v>-1.46</v>
       </c>
       <c r="K47">
-        <v>-4.06</v>
+        <v>-9.31</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>26648205</v>
+        <v>154071</v>
       </c>
       <c r="O47" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3041,46 +3077,46 @@
         <v>61</v>
       </c>
       <c r="C48">
-        <v>3505.05</v>
+        <v>177</v>
       </c>
       <c r="D48">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F48">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="G48">
-        <v>99846.05</v>
+        <v>625.83</v>
       </c>
       <c r="H48">
-        <v>-15.98</v>
+        <v>-24.62</v>
       </c>
       <c r="I48">
-        <v>106</v>
+        <v>92.94</v>
       </c>
       <c r="J48">
-        <v>-2.19</v>
+        <v>-6.7</v>
       </c>
       <c r="K48">
-        <v>5.83</v>
+        <v>-4.35</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M48">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>533711</v>
+        <v>112574</v>
       </c>
       <c r="O48" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3091,45 +3127,445 @@
         <v>62</v>
       </c>
       <c r="C49">
+        <v>357.55</v>
+      </c>
+      <c r="D49">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49">
+        <v>83</v>
+      </c>
+      <c r="G49">
+        <v>9418.35</v>
+      </c>
+      <c r="H49">
+        <v>-15.13</v>
+      </c>
+      <c r="I49">
+        <v>71.64</v>
+      </c>
+      <c r="J49">
+        <v>-3.67</v>
+      </c>
+      <c r="K49">
+        <v>3.46</v>
+      </c>
+      <c r="L49">
+        <v>41</v>
+      </c>
+      <c r="M49">
+        <v>33</v>
+      </c>
+      <c r="N49">
+        <v>456033</v>
+      </c>
+      <c r="O49" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>210</v>
+      </c>
+      <c r="D50">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>500.09</v>
+      </c>
+      <c r="H50">
+        <v>-33.54</v>
+      </c>
+      <c r="I50">
+        <v>31.89</v>
+      </c>
+      <c r="J50">
+        <v>-5.12</v>
+      </c>
+      <c r="K50">
+        <v>-5.8</v>
+      </c>
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="M50">
+        <v>32</v>
+      </c>
+      <c r="N50">
+        <v>72912</v>
+      </c>
+      <c r="O50" t="s">
+        <v>111</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>228</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51">
+        <v>115</v>
+      </c>
+      <c r="G51">
+        <v>762.4400000000001</v>
+      </c>
+      <c r="H51">
+        <v>-23.15</v>
+      </c>
+      <c r="I51">
+        <v>10.13</v>
+      </c>
+      <c r="J51">
+        <v>-3.8</v>
+      </c>
+      <c r="K51">
+        <v>-1.53</v>
+      </c>
+      <c r="L51">
+        <v>57</v>
+      </c>
+      <c r="M51">
+        <v>35</v>
+      </c>
+      <c r="N51">
+        <v>650952</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>227.39</v>
+      </c>
+      <c r="D52">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52">
+        <v>151</v>
+      </c>
+      <c r="G52">
+        <v>68262.61</v>
+      </c>
+      <c r="H52">
+        <v>-20.59</v>
+      </c>
+      <c r="I52">
+        <v>39.69</v>
+      </c>
+      <c r="J52">
+        <v>3.87</v>
+      </c>
+      <c r="K52">
+        <v>-1.07</v>
+      </c>
+      <c r="L52">
+        <v>67</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52">
+        <v>13079126</v>
+      </c>
+      <c r="O52" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>308.7</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53">
+        <v>93</v>
+      </c>
+      <c r="G53">
+        <v>64596.06</v>
+      </c>
+      <c r="H53">
+        <v>-14.48</v>
+      </c>
+      <c r="I53">
+        <v>56.54</v>
+      </c>
+      <c r="J53">
+        <v>-4.02</v>
+      </c>
+      <c r="K53">
+        <v>7.17</v>
+      </c>
+      <c r="L53">
+        <v>43</v>
+      </c>
+      <c r="M53">
+        <v>39</v>
+      </c>
+      <c r="N53">
+        <v>3015260</v>
+      </c>
+      <c r="O53" t="s">
+        <v>113</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>110.15</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54">
+        <v>106</v>
+      </c>
+      <c r="G54">
+        <v>51080.93</v>
+      </c>
+      <c r="H54">
+        <v>-30.26</v>
+      </c>
+      <c r="I54">
+        <v>16.88</v>
+      </c>
+      <c r="J54">
+        <v>2.97</v>
+      </c>
+      <c r="K54">
+        <v>-10.46</v>
+      </c>
+      <c r="L54">
+        <v>59</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54">
+        <v>5273481</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>102.8</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55">
+        <v>106</v>
+      </c>
+      <c r="G55">
+        <v>94234.99000000001</v>
+      </c>
+      <c r="H55">
+        <v>-20.25</v>
+      </c>
+      <c r="I55">
+        <v>34.24</v>
+      </c>
+      <c r="J55">
+        <v>-1.03</v>
+      </c>
+      <c r="K55">
+        <v>-4.06</v>
+      </c>
+      <c r="L55">
+        <v>47</v>
+      </c>
+      <c r="M55">
+        <v>23</v>
+      </c>
+      <c r="N55">
+        <v>26648205</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>3505.05</v>
+      </c>
+      <c r="D56">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56">
+        <v>146</v>
+      </c>
+      <c r="G56">
+        <v>99846.05</v>
+      </c>
+      <c r="H56">
+        <v>-15.98</v>
+      </c>
+      <c r="I56">
+        <v>106</v>
+      </c>
+      <c r="J56">
+        <v>-2.19</v>
+      </c>
+      <c r="K56">
+        <v>5.83</v>
+      </c>
+      <c r="L56">
+        <v>45</v>
+      </c>
+      <c r="M56">
+        <v>34</v>
+      </c>
+      <c r="N56">
+        <v>533711</v>
+      </c>
+      <c r="O56" t="s">
+        <v>114</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
         <v>710.6</v>
       </c>
-      <c r="D49">
+      <c r="D57">
         <v>55</v>
       </c>
-      <c r="E49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49">
+      <c r="E57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57">
         <v>115</v>
       </c>
-      <c r="G49">
+      <c r="G57">
         <v>58056.28</v>
       </c>
-      <c r="H49">
+      <c r="H57">
         <v>-16.2</v>
       </c>
-      <c r="I49">
+      <c r="I57">
         <v>52.84</v>
       </c>
-      <c r="J49">
+      <c r="J57">
         <v>-3.79</v>
       </c>
-      <c r="K49">
+      <c r="K57">
         <v>-1.37</v>
       </c>
-      <c r="L49">
+      <c r="L57">
         <v>46</v>
       </c>
-      <c r="M49">
+      <c r="M57">
         <v>26</v>
       </c>
-      <c r="N49">
+      <c r="N57">
         <v>942026</v>
       </c>
-      <c r="O49" t="s">
-        <v>78</v>
-      </c>
-      <c r="P49" t="b">
+      <c r="O57" t="s">
+        <v>87</v>
+      </c>
+      <c r="P57" t="b">
         <v>0</v>
       </c>
     </row>
